--- a/data/result_template.xlsx
+++ b/data/result_template.xlsx
@@ -5,52 +5,22 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Developper\Tadano\PythonProjects\BAT\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TadanoProjects\PythonProjects\PyBAT\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7995"/>
   </bookViews>
   <sheets>
-    <sheet name="VAD解析結果" sheetId="1" r:id="rId1"/>
-    <sheet name="相関分析" sheetId="2" r:id="rId2"/>
+    <sheet name="Result of VAD" sheetId="1" r:id="rId1"/>
+    <sheet name="Correlation Analysis" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="37">
-  <si>
-    <t>開始時間</t>
-    <rPh sb="0" eb="2">
-      <t>カイシ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジカン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>終了時間</t>
-    <rPh sb="0" eb="2">
-      <t>シュウリョウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジカン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>発話時間</t>
-    <rPh sb="0" eb="2">
-      <t>ハツワ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジカン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="40">
   <si>
     <t>か</t>
     <phoneticPr fontId="1"/>
@@ -180,23 +150,35 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Test Part2 VAD 解析結果</t>
-    <rPh sb="15" eb="17">
-      <t>カイセキ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ケッカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Test Part1 VAD 解析結果</t>
-    <rPh sb="15" eb="17">
-      <t>カイセキ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ケッカ</t>
-    </rPh>
+    <t>start time</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>end time</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>interval</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>start time</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>end time</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>interval</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Result of Test 1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Result of Test 2</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -340,13 +322,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" altLang="ja-JP"/>
-              <a:t>Test Part1 VAD </a:t>
+              <a:t>Result of Test 1</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US"/>
-              <a:t>解析結果</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" altLang="ja-JP"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -392,11 +369,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>VAD解析結果!$B$2</c:f>
+              <c:f>'Result of VAD'!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>開始時間</c:v>
+                  <c:v>start time</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -413,7 +390,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>VAD解析結果!$A$3:$A$34</c:f>
+              <c:f>'Result of VAD'!$A$3:$A$34</c:f>
               <c:strCache>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
@@ -517,7 +494,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>VAD解析結果!$B$3:$B$34</c:f>
+              <c:f>'Result of VAD'!$B$3:$B$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
@@ -535,11 +512,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>VAD解析結果!$C$2</c:f>
+              <c:f>'Result of VAD'!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>終了時間</c:v>
+                  <c:v>end time</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -556,7 +533,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>VAD解析結果!$A$3:$A$34</c:f>
+              <c:f>'Result of VAD'!$A$3:$A$34</c:f>
               <c:strCache>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
@@ -660,7 +637,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>VAD解析結果!$C$3:$C$34</c:f>
+              <c:f>'Result of VAD'!$C$3:$C$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
@@ -678,11 +655,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>VAD解析結果!$D$2</c:f>
+              <c:f>'Result of VAD'!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>発話時間</c:v>
+                  <c:v>interval</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -699,7 +676,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>VAD解析結果!$A$3:$A$34</c:f>
+              <c:f>'Result of VAD'!$A$3:$A$34</c:f>
               <c:strCache>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
@@ -803,7 +780,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>VAD解析結果!$D$3:$D$34</c:f>
+              <c:f>'Result of VAD'!$D$3:$D$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
@@ -1048,12 +1025,9 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" altLang="ja-JP"/>
-              <a:t>Test Part2 VAD </a:t>
+              <a:t>Result of Test 2</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US"/>
-              <a:t>解析結果</a:t>
-            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1099,11 +1073,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>VAD解析結果!$G$2</c:f>
+              <c:f>'Result of VAD'!$G$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>開始時間</c:v>
+                  <c:v>start time</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1120,7 +1094,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>VAD解析結果!$F$3:$F$34</c:f>
+              <c:f>'Result of VAD'!$F$3:$F$34</c:f>
               <c:strCache>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
@@ -1224,7 +1198,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>VAD解析結果!$G$3:$G$34</c:f>
+              <c:f>'Result of VAD'!$G$3:$G$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
@@ -1242,11 +1216,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>VAD解析結果!$H$2</c:f>
+              <c:f>'Result of VAD'!$H$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>終了時間</c:v>
+                  <c:v>end time</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1263,7 +1237,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>VAD解析結果!$F$3:$F$34</c:f>
+              <c:f>'Result of VAD'!$F$3:$F$34</c:f>
               <c:strCache>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
@@ -1367,7 +1341,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>VAD解析結果!$H$3:$H$34</c:f>
+              <c:f>'Result of VAD'!$H$3:$H$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
@@ -1385,11 +1359,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>VAD解析結果!$I$2</c:f>
+              <c:f>'Result of VAD'!$I$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>発話時間</c:v>
+                  <c:v>interval</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1406,7 +1380,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>VAD解析結果!$F$3:$F$34</c:f>
+              <c:f>'Result of VAD'!$F$3:$F$34</c:f>
               <c:strCache>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
@@ -1510,7 +1484,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>VAD解析結果!$I$3:$I$34</c:f>
+              <c:f>'Result of VAD'!$I$3:$I$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
@@ -3144,13 +3118,13 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="F1" s="3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -3159,34 +3133,34 @@
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="1" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="1" t="s">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -3194,13 +3168,13 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -3208,13 +3182,13 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -3222,13 +3196,13 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -3236,13 +3210,13 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -3250,13 +3224,13 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -3264,13 +3238,13 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -3278,13 +3252,13 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -3292,13 +3266,13 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -3306,13 +3280,13 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -3320,13 +3294,13 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -3334,13 +3308,13 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -3348,13 +3322,13 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="F15" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -3362,13 +3336,13 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="F16" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -3376,13 +3350,13 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="F17" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -3390,13 +3364,13 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="F18" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -3404,13 +3378,13 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="F19" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -3418,13 +3392,13 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="F20" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -3432,13 +3406,13 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="F21" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -3446,13 +3420,13 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="F22" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -3460,13 +3434,13 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="F23" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -3474,13 +3448,13 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="F24" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -3488,13 +3462,13 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="F25" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -3502,13 +3476,13 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="F26" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -3516,13 +3490,13 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="F27" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -3530,13 +3504,13 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="F28" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -3544,13 +3518,13 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="F29" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -3558,13 +3532,13 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="F30" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -3572,13 +3546,13 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="F31" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -3586,13 +3560,13 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="F32" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -3600,13 +3574,13 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="F33" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -3614,13 +3588,13 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="F34" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>

--- a/data/result_template.xlsx
+++ b/data/result_template.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="41">
   <si>
     <t>か</t>
     <phoneticPr fontId="1"/>
@@ -179,6 +179,10 @@
   </si>
   <si>
     <t>Result of Test 2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>method</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3108,7 +3112,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:D1"/>
@@ -3599,6 +3603,14 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C35" t="s">
+        <v>40</v>
+      </c>
+      <c r="H35" t="s">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/data/result_template.xlsx
+++ b/data/result_template.xlsx
@@ -12,15 +12,15 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7995"/>
   </bookViews>
   <sheets>
-    <sheet name="Result of VAD" sheetId="1" r:id="rId1"/>
-    <sheet name="Correlation Analysis" sheetId="2" r:id="rId2"/>
+    <sheet name="VAD" sheetId="1" r:id="rId1"/>
+    <sheet name=" Correlation Analysis" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="43">
   <si>
     <t>か</t>
     <phoneticPr fontId="1"/>
@@ -150,6 +150,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>Analyze Method</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>start time</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -166,7 +170,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>end time</t>
+    <t>interval</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>start time</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -174,15 +182,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Result of Test 1</t>
+    <t>Resurt of Test1</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Result of Test 2</t>
+    <t>Result of Test2</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>method</t>
+    <t>Result of Test3</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -326,7 +334,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" altLang="ja-JP"/>
-              <a:t>Result of Test 1</a:t>
+              <a:t>Resurt of Test1</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -373,7 +381,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Result of VAD'!$B$2</c:f>
+              <c:f>VAD!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -394,7 +402,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Result of VAD'!$A$3:$A$34</c:f>
+              <c:f>VAD!$A$3:$A$34</c:f>
               <c:strCache>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
@@ -498,7 +506,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Result of VAD'!$B$3:$B$34</c:f>
+              <c:f>VAD!$B$3:$B$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
@@ -516,7 +524,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Result of VAD'!$C$2</c:f>
+              <c:f>VAD!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -537,7 +545,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Result of VAD'!$A$3:$A$34</c:f>
+              <c:f>VAD!$A$3:$A$34</c:f>
               <c:strCache>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
@@ -641,7 +649,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Result of VAD'!$C$3:$C$34</c:f>
+              <c:f>VAD!$C$3:$C$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
@@ -659,7 +667,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Result of VAD'!$D$2</c:f>
+              <c:f>VAD!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -680,7 +688,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Result of VAD'!$A$3:$A$34</c:f>
+              <c:f>VAD!$A$3:$A$34</c:f>
               <c:strCache>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
@@ -784,7 +792,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Result of VAD'!$D$3:$D$34</c:f>
+              <c:f>VAD!$D$3:$D$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
@@ -1029,7 +1037,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" altLang="ja-JP"/>
-              <a:t>Result of Test 2</a:t>
+              <a:t>Result of Test2</a:t>
             </a:r>
             <a:endParaRPr lang="ja-JP" altLang="en-US"/>
           </a:p>
@@ -1077,7 +1085,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Result of VAD'!$G$2</c:f>
+              <c:f>VAD!$G$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1098,7 +1106,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Result of VAD'!$F$3:$F$34</c:f>
+              <c:f>VAD!$F$3:$F$34</c:f>
               <c:strCache>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
@@ -1202,7 +1210,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Result of VAD'!$G$3:$G$34</c:f>
+              <c:f>VAD!$G$3:$G$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
@@ -1220,7 +1228,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Result of VAD'!$H$2</c:f>
+              <c:f>VAD!$H$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1241,7 +1249,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Result of VAD'!$F$3:$F$34</c:f>
+              <c:f>VAD!$F$3:$F$34</c:f>
               <c:strCache>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
@@ -1345,7 +1353,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Result of VAD'!$H$3:$H$34</c:f>
+              <c:f>VAD!$H$3:$H$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
@@ -1363,7 +1371,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Result of VAD'!$I$2</c:f>
+              <c:f>VAD!$I$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1384,7 +1392,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Result of VAD'!$F$3:$F$34</c:f>
+              <c:f>VAD!$F$3:$F$34</c:f>
               <c:strCache>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
@@ -1488,7 +1496,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Result of VAD'!$I$3:$I$34</c:f>
+              <c:f>VAD!$I$3:$I$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
@@ -1698,6 +1706,710 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>Resurt of Test3</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>VAD!$L$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>start time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>VAD!$K$3:$K$34</c:f>
+              <c:strCache>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>か</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>は</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>き</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>せ</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>つ</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>と</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>こ</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ふ</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>け</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>し</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>ら</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>れ</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>え</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>そ</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>お</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>よ</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>ね</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>ゆ</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>ひ</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>む</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>さ</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>や</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>も</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>み</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>ち</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>う</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>す</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>の</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>ま</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>て</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>ろ</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>い</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>VAD!$L$3:$L$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-79F5-45DE-8459-59F9D4C11A09}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>VAD!$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>end time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>VAD!$K$3:$K$34</c:f>
+              <c:strCache>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>か</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>は</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>き</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>せ</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>つ</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>と</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>こ</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ふ</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>け</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>し</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>ら</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>れ</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>え</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>そ</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>お</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>よ</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>ね</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>ゆ</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>ひ</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>む</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>さ</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>や</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>も</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>み</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>ち</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>う</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>す</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>の</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>ま</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>て</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>ろ</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>い</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>VAD!$M$3:$M$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-79F5-45DE-8459-59F9D4C11A09}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>VAD!$N$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>interval</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>VAD!$K$3:$K$34</c:f>
+              <c:strCache>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>か</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>は</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>き</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>せ</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>つ</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>と</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>こ</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ふ</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>け</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>し</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>ら</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>れ</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>え</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>そ</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>お</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>よ</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>ね</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>ゆ</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>ひ</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>む</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>さ</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>や</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>も</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>み</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>ち</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>う</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>す</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>の</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>ま</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>て</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>ろ</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>い</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>VAD!$N$3:$N$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-79F5-45DE-8459-59F9D4C11A09}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="225273264"/>
+        <c:axId val="225270640"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="225273264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="225270640"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="225270640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="225273264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1778,6 +2490,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -2784,20 +3536,523 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>685799</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:rowOff>4761</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>676274</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2818,16 +4073,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>4762</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>461962</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2841,6 +4096,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>14287</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="グラフ 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3112,7 +4397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:D1"/>
@@ -3120,43 +4405,59 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="F1" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
+      <c r="K1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -3169,8 +4470,14 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
+      <c r="K3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -3183,8 +4490,14 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
+      <c r="K4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -3197,8 +4510,14 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
+      <c r="K5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -3211,8 +4530,14 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
+      <c r="K6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -3225,8 +4550,14 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
+      <c r="K7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -3239,8 +4570,14 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
+      <c r="K8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -3253,8 +4590,14 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
+      <c r="K9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -3267,8 +4610,14 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
+      <c r="K10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -3281,8 +4630,14 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
+      <c r="K11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -3295,8 +4650,14 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
+      <c r="K12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -3309,8 +4670,14 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
+      <c r="K13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -3323,8 +4690,14 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
+      <c r="K14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -3337,8 +4710,14 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
+      <c r="K15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
@@ -3351,8 +4730,14 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
+      <c r="K16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
@@ -3365,8 +4750,14 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
+      <c r="K17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
@@ -3379,8 +4770,14 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
+      <c r="K18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
@@ -3393,8 +4790,14 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
+      <c r="K19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
@@ -3407,8 +4810,14 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
+      <c r="K20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
@@ -3421,8 +4830,14 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
+      <c r="K21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
@@ -3435,8 +4850,14 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
+      <c r="K22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
         <v>20</v>
       </c>
@@ -3449,8 +4870,14 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
+      <c r="K23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>21</v>
       </c>
@@ -3463,8 +4890,14 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
+      <c r="K24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>22</v>
       </c>
@@ -3477,8 +4910,14 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
+      <c r="K25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>23</v>
       </c>
@@ -3491,8 +4930,14 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
+      <c r="K26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
         <v>24</v>
       </c>
@@ -3505,8 +4950,14 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
+      <c r="K27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>25</v>
       </c>
@@ -3519,8 +4970,14 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
+      <c r="K28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
         <v>26</v>
       </c>
@@ -3533,8 +4990,14 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
+      <c r="K29" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
         <v>27</v>
       </c>
@@ -3547,8 +5010,14 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
+      <c r="K30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
         <v>28</v>
       </c>
@@ -3561,8 +5030,14 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
+      <c r="K31" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
         <v>29</v>
       </c>
@@ -3575,8 +5050,14 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
+      <c r="K32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
         <v>30</v>
       </c>
@@ -3589,8 +5070,14 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
+      <c r="K33" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
         <v>31</v>
       </c>
@@ -3603,19 +5090,29 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
+      <c r="K34" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="C35" t="s">
-        <v>40</v>
-      </c>
-      <c r="H35" t="s">
-        <v>40</v>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>32</v>
+      </c>
+      <c r="F35" t="s">
+        <v>32</v>
+      </c>
+      <c r="K35" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F1:I1"/>
+    <mergeCell ref="K1:N1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/result_template.xlsx
+++ b/data/result_template.xlsx
@@ -15,12 +15,12 @@
     <sheet name="VAD" sheetId="1" r:id="rId1"/>
     <sheet name=" Correlation Analysis" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="61">
   <si>
     <t>か</t>
     <phoneticPr fontId="1"/>
@@ -191,6 +191,69 @@
   </si>
   <si>
     <t>Result of Test3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>min start time</t>
+  </si>
+  <si>
+    <t>min start time</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>max start time</t>
+  </si>
+  <si>
+    <t>max start time</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>avg start time</t>
+  </si>
+  <si>
+    <t>avg start time</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>min end time</t>
+  </si>
+  <si>
+    <t>min end time</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>max end time</t>
+  </si>
+  <si>
+    <t>max end time</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>avg end time</t>
+  </si>
+  <si>
+    <t>avg end time</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>min interval</t>
+  </si>
+  <si>
+    <t>min interval</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>max interval</t>
+  </si>
+  <si>
+    <t>max interval</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>avg interval</t>
+  </si>
+  <si>
+    <t>avg interval</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4397,13 +4460,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N35"/>
+  <dimension ref="A1:N45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="4" max="4" width="9.375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
@@ -5106,6 +5172,213 @@
       </c>
       <c r="K35" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="C37" t="s">
+        <v>44</v>
+      </c>
+      <c r="D37">
+        <f>MIN(B3:B34)</f>
+        <v>0</v>
+      </c>
+      <c r="H37" t="s">
+        <v>43</v>
+      </c>
+      <c r="I37">
+        <f>MIN(G3:G34)</f>
+        <v>0</v>
+      </c>
+      <c r="M37" t="s">
+        <v>43</v>
+      </c>
+      <c r="N37">
+        <f>MIN(L3:L34)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="C38" t="s">
+        <v>46</v>
+      </c>
+      <c r="D38">
+        <f>MAX(B3:B34)</f>
+        <v>0</v>
+      </c>
+      <c r="H38" t="s">
+        <v>45</v>
+      </c>
+      <c r="I38">
+        <f>MAX(G3:G34)</f>
+        <v>0</v>
+      </c>
+      <c r="M38" t="s">
+        <v>45</v>
+      </c>
+      <c r="N38">
+        <f>MAX(L3:L34)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="C39" t="s">
+        <v>48</v>
+      </c>
+      <c r="D39" t="e">
+        <f>AVERAGE(B3:B34)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="e">
+        <f>AVERAGE(G3:G34)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M39" t="s">
+        <v>47</v>
+      </c>
+      <c r="N39" t="e">
+        <f>AVERAGE(L3:L34)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="C40" t="s">
+        <v>50</v>
+      </c>
+      <c r="D40">
+        <f>MIN(C3:C34)</f>
+        <v>0</v>
+      </c>
+      <c r="H40" t="s">
+        <v>49</v>
+      </c>
+      <c r="I40">
+        <f>MIN(H3:H34)</f>
+        <v>0</v>
+      </c>
+      <c r="M40" t="s">
+        <v>49</v>
+      </c>
+      <c r="N40">
+        <f>MIN(M3:M34)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="C41" t="s">
+        <v>52</v>
+      </c>
+      <c r="D41">
+        <f>MAX(C3:C34)</f>
+        <v>0</v>
+      </c>
+      <c r="H41" t="s">
+        <v>51</v>
+      </c>
+      <c r="I41">
+        <f>MAX(H3:H34)</f>
+        <v>0</v>
+      </c>
+      <c r="M41" t="s">
+        <v>51</v>
+      </c>
+      <c r="N41">
+        <f>MAX(M3:M34)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="C42" t="s">
+        <v>54</v>
+      </c>
+      <c r="D42" t="e">
+        <f>AVERAGE(C3:C34)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H42" t="s">
+        <v>53</v>
+      </c>
+      <c r="I42" t="e">
+        <f>AVERAGE(H3:H34)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M42" t="s">
+        <v>53</v>
+      </c>
+      <c r="N42" t="e">
+        <f>AVERAGE(M3:M34)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="C43" t="s">
+        <v>56</v>
+      </c>
+      <c r="D43">
+        <f>MIN(D3:D34)</f>
+        <v>0</v>
+      </c>
+      <c r="H43" t="s">
+        <v>55</v>
+      </c>
+      <c r="I43">
+        <f>MIN(I3:I34)</f>
+        <v>0</v>
+      </c>
+      <c r="M43" t="s">
+        <v>55</v>
+      </c>
+      <c r="N43">
+        <f>MIN(N3:N34)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="C44" t="s">
+        <v>58</v>
+      </c>
+      <c r="D44">
+        <f>MAX(D3:D34)</f>
+        <v>0</v>
+      </c>
+      <c r="H44" t="s">
+        <v>57</v>
+      </c>
+      <c r="I44">
+        <f>MAX(I3:I34)</f>
+        <v>0</v>
+      </c>
+      <c r="M44" t="s">
+        <v>57</v>
+      </c>
+      <c r="N44">
+        <f>MAX(N3:N34)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="C45" t="s">
+        <v>60</v>
+      </c>
+      <c r="D45" t="e">
+        <f>AVERAGE(D3:D34)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H45" t="s">
+        <v>59</v>
+      </c>
+      <c r="I45" t="e">
+        <f>AVERAGE(I3:I34)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M45" t="s">
+        <v>59</v>
+      </c>
+      <c r="N45" t="e">
+        <f>AVERAGE(N3:N34)</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>

--- a/data/result_template.xlsx
+++ b/data/result_template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TadanoProjects\PythonProjects\PyBAT\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Developer\Tadano\PythonProjects\PyBAT\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,135 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="61">
-  <si>
-    <t>か</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>は</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>き</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>せ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>つ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>と</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>こ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ふ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>け</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>し</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ら</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>れ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>え</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>そ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>お</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>よ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ね</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ゆ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ひ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>む</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>さ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>や</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>も</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>み</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ち</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>う</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>す</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>の</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ま</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>て</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ろ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>い</t>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
   <si>
     <t>Analyze Method</t>
     <phoneticPr fontId="1"/>
@@ -464,108 +336,13 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>VAD!$A$3:$A$34</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
-                <c:pt idx="0">
-                  <c:v>か</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>は</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>き</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>せ</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>つ</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>と</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>こ</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>ふ</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>け</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>し</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>ら</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>れ</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>え</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>そ</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>お</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>よ</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>ね</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>ゆ</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>ひ</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>む</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>さ</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>や</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>も</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>み</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>ち</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>う</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>す</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>の</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>ま</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>て</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>ろ</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>い</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -607,108 +384,13 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>VAD!$A$3:$A$34</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
-                <c:pt idx="0">
-                  <c:v>か</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>は</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>き</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>せ</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>つ</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>と</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>こ</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>ふ</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>け</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>し</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>ら</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>れ</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>え</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>そ</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>お</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>よ</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>ね</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>ゆ</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>ひ</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>む</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>さ</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>や</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>も</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>み</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>ち</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>う</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>す</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>の</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>ま</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>て</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>ろ</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>い</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -750,108 +432,13 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>VAD!$A$3:$A$34</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
-                <c:pt idx="0">
-                  <c:v>か</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>は</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>き</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>せ</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>つ</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>と</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>こ</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>ふ</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>け</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>し</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>ら</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>れ</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>え</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>そ</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>お</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>よ</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>ね</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>ゆ</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>ひ</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>む</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>さ</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>や</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>も</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>み</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>ち</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>う</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>す</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>の</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>ま</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>て</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>ろ</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>い</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1168,108 +755,13 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>VAD!$F$3:$F$34</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
-                <c:pt idx="0">
-                  <c:v>か</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>は</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>き</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>せ</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>つ</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>と</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>こ</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>ふ</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>け</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>し</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>ら</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>れ</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>え</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>そ</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>お</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>よ</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>ね</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>ゆ</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>ひ</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>む</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>さ</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>や</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>も</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>み</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>ち</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>う</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>す</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>の</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>ま</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>て</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>ろ</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>い</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1311,108 +803,13 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>VAD!$F$3:$F$34</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
-                <c:pt idx="0">
-                  <c:v>か</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>は</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>き</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>せ</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>つ</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>と</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>こ</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>ふ</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>け</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>し</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>ら</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>れ</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>え</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>そ</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>お</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>よ</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>ね</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>ゆ</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>ひ</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>む</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>さ</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>や</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>も</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>み</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>ち</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>う</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>す</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>の</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>ま</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>て</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>ろ</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>い</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1454,108 +851,13 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>VAD!$F$3:$F$34</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
-                <c:pt idx="0">
-                  <c:v>か</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>は</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>き</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>せ</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>つ</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>と</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>こ</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>ふ</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>け</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>し</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>ら</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>れ</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>え</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>そ</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>お</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>よ</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>ね</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>ゆ</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>ひ</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>む</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>さ</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>や</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>も</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>み</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>ち</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>う</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>す</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>の</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>ま</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>て</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>ろ</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>い</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1872,108 +1174,13 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>VAD!$K$3:$K$34</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
-                <c:pt idx="0">
-                  <c:v>か</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>は</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>き</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>せ</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>つ</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>と</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>こ</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>ふ</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>け</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>し</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>ら</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>れ</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>え</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>そ</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>お</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>よ</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>ね</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>ゆ</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>ひ</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>む</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>さ</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>や</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>も</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>み</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>ち</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>う</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>す</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>の</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>ま</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>て</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>ろ</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>い</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2015,108 +1222,13 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>VAD!$K$3:$K$34</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
-                <c:pt idx="0">
-                  <c:v>か</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>は</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>き</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>せ</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>つ</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>と</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>こ</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>ふ</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>け</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>し</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>ら</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>れ</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>え</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>そ</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>お</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>よ</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>ね</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>ゆ</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>ひ</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>む</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>さ</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>や</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>も</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>み</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>ち</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>う</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>す</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>の</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>ま</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>て</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>ろ</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>い</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2158,108 +1270,13 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>VAD!$K$3:$K$34</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
-                <c:pt idx="0">
-                  <c:v>か</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>は</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>き</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>せ</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>つ</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>と</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>こ</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>ふ</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>け</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>し</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>ら</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>れ</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>え</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>そ</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>お</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>よ</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>ね</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>ゆ</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>ひ</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>む</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>さ</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>や</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>も</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>み</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>ち</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>う</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>す</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>の</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>ま</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>て</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>ろ</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>い</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -4473,19 +3490,19 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="F1" s="3" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="K1" s="3" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
@@ -4494,703 +3511,511 @@
     <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="1" t="s">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="1" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="1" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="F3" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="K3" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="F4" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="K4" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="F5" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="K5" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A6" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="F6" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="K6" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A7" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="F7" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="K7" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A8" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="F8" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="K8" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="F9" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="K9" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A10" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="F10" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="K10" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="F11" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="K11" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A12" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="F12" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="K12" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A13" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="F13" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="K13" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A14" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="F14" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-      <c r="K14" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A15" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="F15" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="K15" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A16" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="F16" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="K16" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A17" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="F17" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="K17" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A18" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="F18" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="K18" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A19" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="F19" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="K19" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A20" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="F20" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="K20" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A21" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="F21" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-      <c r="K21" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A22" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="F22" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="K22" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A23" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="F23" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-      <c r="K23" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A24" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="F24" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-      <c r="K24" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A25" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="F25" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-      <c r="K25" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A26" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
-      <c r="F26" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-      <c r="K26" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A27" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="F27" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-      <c r="K27" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A28" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="F28" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-      <c r="K28" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A29" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="F29" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-      <c r="K29" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A30" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-      <c r="F30" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-      <c r="K30" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A31" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-      <c r="F31" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-      <c r="K31" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A32" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
-      <c r="F32" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-      <c r="K32" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A33" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
-      <c r="F33" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-      <c r="K33" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A34" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
-      <c r="F34" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-      <c r="K34" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="F35" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="K35" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C37" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="D37">
         <f>MIN(B3:B34)</f>
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="I37">
         <f>MIN(G3:G34)</f>
         <v>0</v>
       </c>
       <c r="M37" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="N37">
         <f>MIN(L3:L34)</f>
@@ -5199,21 +4024,21 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C38" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="D38">
         <f>MAX(B3:B34)</f>
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="I38">
         <f>MAX(G3:G34)</f>
         <v>0</v>
       </c>
       <c r="M38" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="N38">
         <f>MAX(L3:L34)</f>
@@ -5222,21 +4047,21 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C39" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="D39" t="e">
         <f>AVERAGE(B3:B34)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="I39" t="e">
         <f>AVERAGE(G3:G34)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M39" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="N39" t="e">
         <f>AVERAGE(L3:L34)</f>
@@ -5245,21 +4070,21 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C40" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="D40">
         <f>MIN(C3:C34)</f>
         <v>0</v>
       </c>
       <c r="H40" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="I40">
         <f>MIN(H3:H34)</f>
         <v>0</v>
       </c>
       <c r="M40" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="N40">
         <f>MIN(M3:M34)</f>
@@ -5268,21 +4093,21 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C41" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="D41">
         <f>MAX(C3:C34)</f>
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="I41">
         <f>MAX(H3:H34)</f>
         <v>0</v>
       </c>
       <c r="M41" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="N41">
         <f>MAX(M3:M34)</f>
@@ -5291,21 +4116,21 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C42" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="D42" t="e">
         <f>AVERAGE(C3:C34)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H42" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="I42" t="e">
         <f>AVERAGE(H3:H34)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M42" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="N42" t="e">
         <f>AVERAGE(M3:M34)</f>
@@ -5314,21 +4139,21 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C43" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="D43">
         <f>MIN(D3:D34)</f>
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="I43">
         <f>MIN(I3:I34)</f>
         <v>0</v>
       </c>
       <c r="M43" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="N43">
         <f>MIN(N3:N34)</f>
@@ -5337,21 +4162,21 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C44" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="D44">
         <f>MAX(D3:D34)</f>
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="I44">
         <f>MAX(I3:I34)</f>
         <v>0</v>
       </c>
       <c r="M44" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="N44">
         <f>MAX(N3:N34)</f>
@@ -5360,21 +4185,21 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C45" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="D45" t="e">
         <f>AVERAGE(D3:D34)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H45" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="I45" t="e">
         <f>AVERAGE(I3:I34)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M45" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="N45" t="e">
         <f>AVERAGE(N3:N34)</f>

--- a/data/result_template.xlsx
+++ b/data/result_template.xlsx
@@ -5,22 +5,21 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Developer\Tadano\PythonProjects\PyBAT\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TadanoProjects\PythonProjects\PyBAT\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7995"/>
   </bookViews>
   <sheets>
-    <sheet name="VAD" sheetId="1" r:id="rId1"/>
-    <sheet name=" Correlation Analysis" sheetId="2" r:id="rId2"/>
+    <sheet name="Simple Tabulation" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
   <si>
     <t>Analyze Method</t>
     <phoneticPr fontId="1"/>
@@ -66,66 +65,87 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>min start time</t>
-  </si>
-  <si>
-    <t>min start time</t>
+    <t>min start</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>max start time</t>
-  </si>
-  <si>
-    <t>max start time</t>
+    <t>max start</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>avg start time</t>
-  </si>
-  <si>
-    <t>avg start time</t>
+    <t>avg start</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>min end time</t>
-  </si>
-  <si>
-    <t>min end time</t>
+    <t>min end</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>max end time</t>
-  </si>
-  <si>
-    <t>max end time</t>
+    <t>max end</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>avg end time</t>
-  </si>
-  <si>
-    <t>avg end time</t>
+    <t>avg end</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>min interval</t>
-  </si>
-  <si>
-    <t>min interval</t>
+    <t>min inter</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>max interval</t>
-  </si>
-  <si>
-    <t>max interval</t>
+    <t>max inter</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>avg interval</t>
+    <t>avg inter</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>avg interval</t>
+    <t>min start</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>max start</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>avg start</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>min end</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>max end</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>avg end</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>min inter</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>max inter</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>avg inter</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>min start</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>max start</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>min end</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -316,7 +336,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>VAD!$B$2</c:f>
+              <c:f>'Simple Tabulation'!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -337,7 +357,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>VAD!$A$3:$A$34</c:f>
+              <c:f>'Simple Tabulation'!$A$3:$A$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
@@ -346,7 +366,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>VAD!$B$3:$B$34</c:f>
+              <c:f>'Simple Tabulation'!$B$3:$B$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
@@ -364,7 +384,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>VAD!$C$2</c:f>
+              <c:f>'Simple Tabulation'!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -385,7 +405,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>VAD!$A$3:$A$34</c:f>
+              <c:f>'Simple Tabulation'!$A$3:$A$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
@@ -394,7 +414,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>VAD!$C$3:$C$34</c:f>
+              <c:f>'Simple Tabulation'!$C$3:$C$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
@@ -412,7 +432,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>VAD!$D$2</c:f>
+              <c:f>'Simple Tabulation'!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -433,7 +453,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>VAD!$A$3:$A$34</c:f>
+              <c:f>'Simple Tabulation'!$A$3:$A$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
@@ -442,7 +462,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>VAD!$D$3:$D$34</c:f>
+              <c:f>'Simple Tabulation'!$D$3:$D$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
@@ -735,7 +755,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>VAD!$G$2</c:f>
+              <c:f>'Simple Tabulation'!$G$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -756,7 +776,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>VAD!$F$3:$F$34</c:f>
+              <c:f>'Simple Tabulation'!$F$3:$F$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
@@ -765,7 +785,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>VAD!$G$3:$G$34</c:f>
+              <c:f>'Simple Tabulation'!$G$3:$G$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
@@ -783,7 +803,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>VAD!$H$2</c:f>
+              <c:f>'Simple Tabulation'!$H$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -804,7 +824,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>VAD!$F$3:$F$34</c:f>
+              <c:f>'Simple Tabulation'!$F$3:$F$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
@@ -813,7 +833,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>VAD!$H$3:$H$34</c:f>
+              <c:f>'Simple Tabulation'!$H$3:$H$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
@@ -831,7 +851,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>VAD!$I$2</c:f>
+              <c:f>'Simple Tabulation'!$I$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -852,7 +872,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>VAD!$F$3:$F$34</c:f>
+              <c:f>'Simple Tabulation'!$F$3:$F$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
@@ -861,7 +881,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>VAD!$I$3:$I$34</c:f>
+              <c:f>'Simple Tabulation'!$I$3:$I$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
@@ -1154,7 +1174,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>VAD!$L$2</c:f>
+              <c:f>'Simple Tabulation'!$L$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1175,7 +1195,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>VAD!$K$3:$K$34</c:f>
+              <c:f>'Simple Tabulation'!$K$3:$K$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
@@ -1184,7 +1204,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>VAD!$L$3:$L$34</c:f>
+              <c:f>'Simple Tabulation'!$L$3:$L$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
@@ -1202,7 +1222,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>VAD!$M$2</c:f>
+              <c:f>'Simple Tabulation'!$M$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1223,7 +1243,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>VAD!$K$3:$K$34</c:f>
+              <c:f>'Simple Tabulation'!$K$3:$K$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
@@ -1232,7 +1252,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>VAD!$M$3:$M$34</c:f>
+              <c:f>'Simple Tabulation'!$M$3:$M$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
@@ -1250,7 +1270,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>VAD!$N$2</c:f>
+              <c:f>'Simple Tabulation'!$N$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1271,7 +1291,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>VAD!$K$3:$K$34</c:f>
+              <c:f>'Simple Tabulation'!$K$3:$K$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
@@ -1280,7 +1300,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>VAD!$N$3:$N$34</c:f>
+              <c:f>'Simple Tabulation'!$N$3:$N$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
@@ -4001,21 +4021,21 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C37" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D37">
         <f>MIN(B3:B34)</f>
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="I37">
         <f>MIN(G3:G34)</f>
         <v>0</v>
       </c>
       <c r="M37" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="N37">
         <f>MIN(L3:L34)</f>
@@ -4024,21 +4044,21 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C38" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D38">
         <f>MAX(B3:B34)</f>
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="I38">
         <f>MAX(G3:G34)</f>
         <v>0</v>
       </c>
       <c r="M38" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="N38">
         <f>MAX(L3:L34)</f>
@@ -4047,44 +4067,44 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C39" t="s">
-        <v>16</v>
-      </c>
-      <c r="D39" t="e">
-        <f>AVERAGE(B3:B34)</f>
-        <v>#DIV/0!</v>
+        <v>13</v>
+      </c>
+      <c r="D39" t="str">
+        <f>IF(ISERROR(AVERAGE(B3:B34)), "",AVERAGE(B3:B34))</f>
+        <v/>
       </c>
       <c r="H39" t="s">
-        <v>15</v>
-      </c>
-      <c r="I39" t="e">
-        <f>AVERAGE(G3:G34)</f>
-        <v>#DIV/0!</v>
+        <v>22</v>
+      </c>
+      <c r="I39" t="str">
+        <f>IF(ISERROR(AVERAGE(G3:G34)), "",AVERAGE(G3:G34))</f>
+        <v/>
       </c>
       <c r="M39" t="s">
-        <v>15</v>
-      </c>
-      <c r="N39" t="e">
-        <f>AVERAGE(L3:L34)</f>
-        <v>#DIV/0!</v>
+        <v>22</v>
+      </c>
+      <c r="N39" t="str">
+        <f>IF(ISERROR(AVERAGE(L3:L34)), "",AVERAGE(L3:L34))</f>
+        <v/>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C40" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D40">
         <f>MIN(C3:C34)</f>
         <v>0</v>
       </c>
       <c r="H40" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="I40">
         <f>MIN(H3:H34)</f>
         <v>0</v>
       </c>
       <c r="M40" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="N40">
         <f>MIN(M3:M34)</f>
@@ -4093,21 +4113,21 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C41" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D41">
         <f>MAX(C3:C34)</f>
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I41">
         <f>MAX(H3:H34)</f>
         <v>0</v>
       </c>
       <c r="M41" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="N41">
         <f>MAX(M3:M34)</f>
@@ -4116,44 +4136,44 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C42" t="s">
-        <v>22</v>
-      </c>
-      <c r="D42" t="e">
-        <f>AVERAGE(C3:C34)</f>
-        <v>#DIV/0!</v>
+        <v>16</v>
+      </c>
+      <c r="D42" t="str">
+        <f>IF(ISERROR(AVERAGE(C3:C34)), "",AVERAGE(C3:C34))</f>
+        <v/>
       </c>
       <c r="H42" t="s">
-        <v>21</v>
-      </c>
-      <c r="I42" t="e">
-        <f>AVERAGE(H3:H34)</f>
-        <v>#DIV/0!</v>
+        <v>25</v>
+      </c>
+      <c r="I42" t="str">
+        <f>IF(ISERROR(AVERAGE(H3:H34)), "",AVERAGE(H3:H34))</f>
+        <v/>
       </c>
       <c r="M42" t="s">
-        <v>21</v>
-      </c>
-      <c r="N42" t="e">
-        <f>AVERAGE(M3:M34)</f>
-        <v>#DIV/0!</v>
+        <v>25</v>
+      </c>
+      <c r="N42" t="str">
+        <f>IF(ISERROR(AVERAGE(M3:M34)), "",AVERAGE(M3:M34))</f>
+        <v/>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C43" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D43">
         <f>MIN(D3:D34)</f>
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I43">
         <f>MIN(I3:I34)</f>
         <v>0</v>
       </c>
       <c r="M43" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="N43">
         <f>MIN(N3:N34)</f>
@@ -4162,21 +4182,21 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C44" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D44">
         <f>MAX(D3:D34)</f>
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I44">
         <f>MAX(I3:I34)</f>
         <v>0</v>
       </c>
       <c r="M44" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N44">
         <f>MAX(N3:N34)</f>
@@ -4185,25 +4205,25 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C45" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" t="str">
+        <f>IF(ISERROR(AVERAGE(D3:D34)), "",AVERAGE(D3:D34))</f>
+        <v/>
+      </c>
+      <c r="H45" t="s">
         <v>28</v>
       </c>
-      <c r="D45" t="e">
-        <f>AVERAGE(D3:D34)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H45" t="s">
-        <v>27</v>
-      </c>
-      <c r="I45" t="e">
-        <f>AVERAGE(I3:I34)</f>
-        <v>#DIV/0!</v>
+      <c r="I45" t="str">
+        <f>IF(ISERROR(AVERAGE(I3:I34)), "",AVERAGE(I3:I34))</f>
+        <v/>
       </c>
       <c r="M45" t="s">
-        <v>27</v>
-      </c>
-      <c r="N45" t="e">
-        <f>AVERAGE(N3:N34)</f>
-        <v>#DIV/0!</v>
+        <v>28</v>
+      </c>
+      <c r="N45" t="str">
+        <f>IF(ISERROR(AVERAGE(N3:N34)), "",AVERAGE(N3:N34))</f>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -4217,17 +4237,4 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>